--- a/biology/Zoologie/Bourletiella/Bourletiella.xlsx
+++ b/biology/Zoologie/Bourletiella/Bourletiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bourletiella est un genre de collemboles de la famille des Bourletiellidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Checklist of the Collembola of the World (version du 12 août 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Checklist of the Collembola of the World (version du 12 août 2019) :
 Bourletiella arvalis (Fitch, 1862)
 Bourletiella captis Baijal, 1969
 Bourletiella christianseni Snider, 1978
@@ -568,7 +582,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique, Bourletiella, a été donné en l'honneur de l'abbé C. Bourlet (d) qui a rédigé plusieurs articles sur les collemboles dans les années 1830-1840.
 </t>
@@ -599,7 +615,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Banks, 1899 : « The Smynthuridae of Long Island, New York ». Journal of the New York Entomological Society, vol. 7, p. 193–197 (lire en ligne).
 Sur les autres projets Wikimedia :
